--- a/instruction-tuning.xlsx
+++ b/instruction-tuning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Briefcase\__M授業\_機械学習\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE87852-6756-41E3-8BF6-67396353EB3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5FA58B-5506-4793-9655-5AAA0BEFD8D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1575" yWindow="2070" windowWidth="26745" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,12 +36,6 @@
   </si>
   <si>
     <t>7b-instruct-hf</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>temperature = 1
-top_p = 0.95
-max_new_tokens=128</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -571,22 +565,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>以下は、岡による実験結果</t>
-    <rPh sb="0" eb="2">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>オカ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジッケン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ケッカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>指示内容だけを書いたプロンプト</t>
     <rPh sb="0" eb="4">
       <t>シジナイヨウ</t>
@@ -609,6 +587,89 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>以下は、岡による実験結果（出力はランダム性を持つため、同じ条件で2回ずつ実行した結果を掲載；本当は、もっといろいろな条件で試す必要があるし、それぞれの条件に対してもっと多数回試行しないとちゃんとした比較はできないことに注意）</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジッケン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ケイサイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ホントウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="84" eb="87">
+      <t>タスウカイ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>シコウ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>使用したパラメータ
+temperature = 1
+top_p = 0.95
+max_new_tokens=128</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -757,7 +818,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -793,6 +854,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1104,8 +1168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:B24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1118,33 +1182,33 @@
     <row r="1" spans="1:4">
       <c r="A1" s="1"/>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="B2" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="B3" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="B5" s="18"/>
+      <c r="B5" s="19"/>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1160,27 +1224,29 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="112.5">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="38.25" customHeight="1">
+      <c r="B10" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" spans="1:4" ht="75">
+      <c r="B11" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="B10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="56.25">
-      <c r="B11" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1196,237 +1262,238 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="206.25">
-      <c r="A13" s="20" t="s">
-        <v>63</v>
+      <c r="A13" s="21" t="s">
+        <v>61</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="206.25">
-      <c r="A14" s="21"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="9"/>
       <c r="C14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="187.5">
+      <c r="A15" s="22"/>
+      <c r="B15" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="187.5">
-      <c r="A15" s="21"/>
-      <c r="B15" s="8" t="s">
+      <c r="C15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="D15" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="262.5">
-      <c r="A16" s="21"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="9"/>
       <c r="C16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="356.25">
+      <c r="A17" s="22"/>
+      <c r="B17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D17" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="356.25">
-      <c r="A17" s="21"/>
-      <c r="B17" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
     <row r="18" spans="1:4" ht="337.5">
-      <c r="A18" s="21"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="9"/>
       <c r="C18" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="187.5">
-      <c r="A19" s="21"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="206.25">
-      <c r="A20" s="21"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="9"/>
       <c r="C20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="225">
+      <c r="A21" s="22"/>
+      <c r="B21" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D21" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="225">
-      <c r="A21" s="21"/>
-      <c r="B21" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
     <row r="22" spans="1:4" ht="225">
-      <c r="A22" s="22"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="9"/>
       <c r="C22" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="409.5">
-      <c r="A23" s="24" t="s">
-        <v>64</v>
+      <c r="A23" s="25" t="s">
+        <v>62</v>
       </c>
       <c r="B23" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="D23" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="409.5">
-      <c r="A24" s="16"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="9"/>
       <c r="C24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="409.5">
+      <c r="A25" s="17"/>
+      <c r="B25" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="409.5">
-      <c r="A25" s="16"/>
-      <c r="B25" s="8" t="s">
+      <c r="C25" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="D25" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="409.5">
-      <c r="A26" s="16"/>
+      <c r="A26" s="17"/>
       <c r="B26" s="9"/>
       <c r="C26" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="409.5">
+      <c r="A27" s="17"/>
+      <c r="B27" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="C27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="409.5">
-      <c r="A27" s="16"/>
-      <c r="B27" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="409.5">
       <c r="A28" s="10"/>
       <c r="B28" s="9"/>
       <c r="C28" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="75">
       <c r="A29" s="10"/>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="206.25">
       <c r="A30" s="10"/>
-      <c r="B30" s="15"/>
+      <c r="B30" s="16"/>
       <c r="C30" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="318.75">
       <c r="A31" s="10"/>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="18" t="s">
         <v>43</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="150">
       <c r="A32" s="11"/>
-      <c r="B32" s="15"/>
+      <c r="B32" s="16"/>
       <c r="C32" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="3:3">
-      <c r="C33" s="19"/>
+      <c r="C33" s="20"/>
     </row>
     <row r="34" spans="3:3">
-      <c r="C34" s="19"/>
+      <c r="C34" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="B10:D10"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B31:B32"/>
